--- a/docs/example.xlsx
+++ b/docs/example.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/n.devs/GitHub/balckboard-th/html.mail.hello-teacher/docs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/n.devs/GitHub/balckboard-th/send-email-all/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3866214-C970-574D-8A27-B4C1949E7074}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B941880-B88B-4D45-9B56-4E761E5C93D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,6 +567,9 @@
       <c r="E6">
         <v>0</v>
       </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/docs/example.xlsx
+++ b/docs/example.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/n.devs/GitHub/balckboard-th/send-email-all/docs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B941880-B88B-4D45-9B56-4E761E5C93D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28000" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="SheetJS" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>ลำดับ</t>
   </si>
@@ -71,18 +65,30 @@
   </si>
   <si>
     <t>kanyahosakul@gmail.com</t>
+  </si>
+  <si>
+    <t>kun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kunkong2521@gmail.com </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -90,19 +96,348 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -110,27 +445,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="43" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -452,21 +1069,21 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +1100,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -500,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -517,7 +1134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -534,7 +1151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -551,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -568,17 +1185,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="1"/>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{6F60E2B8-A4AD-F04F-A734-0E802D56DE03}"/>
-    <hyperlink ref="D6" r:id="rId2" xr:uid="{D67D81A3-3497-324E-8243-1BB09539EAE6}"/>
+    <hyperlink ref="D5" r:id="rId1" display="n.psk260340@gmail.com"/>
+    <hyperlink ref="D6" r:id="rId2" display="kanyahosakul@gmail.com"/>
+    <hyperlink ref="D7" r:id="rId3" display="Kunkong2521@gmail.com "/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:E1 A4:D4 A3:D3 A2:D2" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:D2 A3:D3 A4:D4 A1:E1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>